--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Not only is it where I met my husband, but it's where I met the people, took courses, -</t>
   </si>
   <si>
-    <t>- and championed the causes that ultimately led me to make my career in international affairs.</t>
-  </si>
-  <si>
     <t>Japan was the daunting economic powerhouse, and China's share of global GDP was 2 percent.</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>We cannot afford to live in contempt of each other's welfare.</t>
   </si>
   <si>
-    <t>Once you've learned to study in a bathing suit on the grass with muscled men throwing Frisbees over your head, you can accomplish almost anything.</t>
-  </si>
-  <si>
     <t>In 1986, when I graduated, the Soviet Union was bristling with 45,000 nuclear weapons, and Berlin Wall was impenetrable.</t>
   </si>
   <si>
@@ -128,6 +122,18 @@
   </si>
   <si>
     <t>He was perhaps 3 or 4 years old, with pencil-thin legs and a distended belly, and only a torn T-shirt to wear.</t>
+  </si>
+  <si>
+    <t>- and championed the causes that ultimately led me to a career in international affairs.</t>
+  </si>
+  <si>
+    <t>Once you've learned to study in a bathing suit on the grass with muscled men throwing Frisbees over your head, you gonna accomplish almost anything.</t>
+  </si>
+  <si>
+    <t>…much less served in his cabinet, …</t>
+  </si>
+  <si>
+    <t>？</t>
   </si>
 </sst>
 </file>
@@ -163,9 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,206 +482,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B42"/>
+  <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="124.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="129.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="1" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>36</v>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -118,9 +118,6 @@
     <t>The joy on his face remains etched in my mind to this day.</t>
   </si>
   <si>
-    <t>But he could well have become one the 9 million children under the age of 5 who die each year, mostly from preventable and treatable afflictions.</t>
-  </si>
-  <si>
     <t>He was perhaps 3 or 4 years old, with pencil-thin legs and a distended belly, and only a torn T-shirt to wear.</t>
   </si>
   <si>
@@ -133,7 +130,46 @@
     <t>…much less served in his cabinet, …</t>
   </si>
   <si>
-    <t>？</t>
+    <t>But he could well have become one of the 9 million children under the age of 5 who die each year, mostly from preventable and treatable afflictions.</t>
+  </si>
+  <si>
+    <t>So we must shape the world that he deserves.</t>
+  </si>
+  <si>
+    <t>Half of humanity lives on less than 2.5 dollars a day.</t>
+  </si>
+  <si>
+    <t>That little boy's future is tied to ours; Our security is ultimately linked to his well-being.</t>
+  </si>
+  <si>
+    <t>That child deserves a world without extreme hunger and dependence that it fosters.</t>
+  </si>
+  <si>
+    <t>Yet Africa's crop production remains the lowest in the world. With your generation's leadership and ingenuity, you can make it the highest.</t>
+  </si>
+  <si>
+    <t>Agricultural research has produced stronger crops that yield more, adapt faster, and better resist drought, disease, and pests.</t>
+  </si>
+  <si>
+    <t>a quality education</t>
+  </si>
+  <si>
+    <t>human trafficking</t>
+  </si>
+  <si>
+    <t>new vaccines for tuberculosis</t>
+  </si>
+  <si>
+    <t>smart therapies that kill cancer cells and leave their healthy neighbors untouched</t>
+  </si>
+  <si>
+    <t>new cures for old plagues</t>
+  </si>
+  <si>
+    <t>needle-free immunizations to stop pandemics in their tracks.</t>
+  </si>
+  <si>
+    <t>They are both children of God, of equal worth, equal consequence, and equal rights.</t>
   </si>
 </sst>
 </file>
@@ -482,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C45"/>
+  <dimension ref="B2:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -516,7 +552,7 @@
         <v>43359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
@@ -524,7 +560,7 @@
         <v>43359</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
@@ -631,7 +667,7 @@
         <v>43359</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
@@ -765,7 +801,7 @@
         <v>43359</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
@@ -813,12 +849,111 @@
         <v>43359</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="241" yWindow="106" windowWidth="14807" windowHeight="8007"/>
   </bookViews>
   <sheets>
-    <sheet name="standford" sheetId="1" r:id="rId1"/>
+    <sheet name="Stanford_Speech" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -170,6 +170,24 @@
   </si>
   <si>
     <t>They are both children of God, of equal worth, equal consequence, and equal rights.</t>
+  </si>
+  <si>
+    <t>… whose air isn't choked by soot, and whose waters aren't polluted with spewing oil.</t>
+  </si>
+  <si>
+    <t>… skipped landlines and leapfrogged to cell phones.</t>
+  </si>
+  <si>
+    <t>… reverses global warming</t>
+  </si>
+  <si>
+    <t>...turns the fight against climate change into a boon for the developing world, not just a burden.</t>
+  </si>
+  <si>
+    <t>And that is the world you can help to forge.</t>
+  </si>
+  <si>
+    <t>Sometimes we innovate in great strides.</t>
   </si>
 </sst>
 </file>
@@ -518,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C57"/>
+  <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -956,6 +974,54 @@
         <v>50</v>
       </c>
     </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="2">
+        <v>43361</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="2">
+        <v>43361</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="2">
+        <v>43361</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="2">
+        <v>43361</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="2">
+        <v>43361</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="2">
+        <v>43361</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -188,6 +188,39 @@
   </si>
   <si>
     <t>Sometimes we innovate in great strides.</t>
+  </si>
+  <si>
+    <t>a challenge worthy of your generation that grew up in this interlinked age</t>
+  </si>
+  <si>
+    <t>free of famine and mass misery</t>
+  </si>
+  <si>
+    <t>Get grit in your eyes, and sand in your hair, and service in your soul.</t>
+  </si>
+  <si>
+    <t>So, don't settle on a single path too soon.</t>
+  </si>
+  <si>
+    <t>To round myself out, …</t>
+  </si>
+  <si>
+    <t>… decided to sample the business world at McKinsey and Company.</t>
+  </si>
+  <si>
+    <t>… had literally never a spreadsheet.</t>
+  </si>
+  <si>
+    <t>I've not followed a pre-ordained path.</t>
+  </si>
+  <si>
+    <t>Rather, I've tried to push myself, stretch myself, and learn new skills that would serve me whichever path I took.</t>
+  </si>
+  <si>
+    <t>… I've taken unexpected turns when my gut dictated.</t>
+  </si>
+  <si>
+    <t>So focus on what stirs your soul, because it's hard to excel at anything that you don't love.</t>
   </si>
 </sst>
 </file>
@@ -536,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C64"/>
+  <dimension ref="B2:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1022,6 +1055,94 @@
         <v>57</v>
       </c>
     </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="2">
+        <v>43362</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -221,6 +221,36 @@
   </si>
   <si>
     <t>So focus on what stirs your soul, because it's hard to excel at anything that you don't love.</t>
+  </si>
+  <si>
+    <t>It is hard to make progress without breaking at least a little crockery.</t>
+  </si>
+  <si>
+    <t>And don't be afraid to go down fighting, if you're fighting a righteous battle.</t>
+  </si>
+  <si>
+    <t>Stick to your guns and to your principles.</t>
+  </si>
+  <si>
+    <t>don't sweat too much what other folks may think of you.</t>
+  </si>
+  <si>
+    <t>"Be who you are and say what you feel, because those who mind don't matter and those who matter don't mind."</t>
+  </si>
+  <si>
+    <t>struct by serious illnesses</t>
+  </si>
+  <si>
+    <t>My colleagues were tremendous about stepping in for me at the halls of the United Nations, but nobody could step in forme or for my brother at the hospital.</t>
+  </si>
+  <si>
+    <t>a devoted parent</t>
+  </si>
+  <si>
+    <t>… has a profound responsibility to try with all our skill, all our smrats, and all our soul.</t>
+  </si>
+  <si>
+    <t>Congratulations again, and Godspeed.</t>
   </si>
 </sst>
 </file>
@@ -569,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C76"/>
+  <dimension ref="B2:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:C76"/>
+      <selection activeCell="B78" sqref="B78:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1143,6 +1173,86 @@
         <v>68</v>
       </c>
     </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" s="2">
+        <v>43363</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -208,9 +208,6 @@
     <t>… decided to sample the business world at McKinsey and Company.</t>
   </si>
   <si>
-    <t>… had literally never a spreadsheet.</t>
-  </si>
-  <si>
     <t>I've not followed a pre-ordained path.</t>
   </si>
   <si>
@@ -241,16 +238,19 @@
     <t>struct by serious illnesses</t>
   </si>
   <si>
-    <t>My colleagues were tremendous about stepping in for me at the halls of the United Nations, but nobody could step in forme or for my brother at the hospital.</t>
-  </si>
-  <si>
     <t>a devoted parent</t>
   </si>
   <si>
-    <t>… has a profound responsibility to try with all our skill, all our smrats, and all our soul.</t>
-  </si>
-  <si>
     <t>Congratulations again, and Godspeed.</t>
+  </si>
+  <si>
+    <t>… had literally never met a spreadsheet.</t>
+  </si>
+  <si>
+    <t>My colleagues were tremendous about stepping in for me at the halls of the United Nations, but nobody could step in for me or for my brother at the hospital.</t>
+  </si>
+  <si>
+    <t>… has a profound responsibility to try with all our skill, all our smarts, and all our soul.</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="B2:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:C87"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1138,7 +1138,7 @@
         <v>43362</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.45">
@@ -1146,7 +1146,7 @@
         <v>43362</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.45">
@@ -1154,7 +1154,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.45">
@@ -1162,7 +1162,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.45">
@@ -1170,7 +1170,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.45">
@@ -1178,7 +1178,7 @@
         <v>43363</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.45">
@@ -1186,7 +1186,7 @@
         <v>43363</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.45">
@@ -1194,7 +1194,7 @@
         <v>43363</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.45">
@@ -1202,7 +1202,7 @@
         <v>43363</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.45">
@@ -1210,7 +1210,7 @@
         <v>43363</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.45">
@@ -1218,7 +1218,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.45">
@@ -1226,7 +1226,7 @@
         <v>43363</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.45">
@@ -1234,7 +1234,7 @@
         <v>43363</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.45">
@@ -1242,7 +1242,7 @@
         <v>43363</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.45">
@@ -1250,7 +1250,7 @@
         <v>43363</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -251,6 +251,33 @@
   </si>
   <si>
     <t>… has a profound responsibility to try with all our skill, all our smarts, and all our soul.</t>
+  </si>
+  <si>
+    <t>… prepare for Convocation and the arrival of a new class of Stanford students, …</t>
+  </si>
+  <si>
+    <t>I contemplate the message I want to deliver …</t>
+  </si>
+  <si>
+    <t>… and his support for the South African rugby team, ---</t>
+  </si>
+  <si>
+    <t>--- which overcame incredible odds to win the World Cup in 1995.</t>
+  </si>
+  <si>
+    <t>The movie inspired me to read Nelson Mandela's autobiograghy, Long Walk to Freedom.</t>
+  </si>
+  <si>
+    <t>It is through education that the daughter of a peasant can become a doctor, …</t>
+  </si>
+  <si>
+    <t>distinguished scholars</t>
+  </si>
+  <si>
+    <t>Alumni have told us that getting to know a faculty member personally was one of the most rewarding aspects of their Stanford experience.</t>
+  </si>
+  <si>
+    <t>A hallmark of our innovations in undergraduate education has been …</t>
   </si>
 </sst>
 </file>
@@ -599,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C87"/>
+  <dimension ref="B2:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1253,6 +1280,78 @@
         <v>75</v>
       </c>
     </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -278,6 +278,39 @@
   </si>
   <si>
     <t>A hallmark of our innovations in undergraduate education has been …</t>
+  </si>
+  <si>
+    <t>on an incredibly wide range of topics from biotechnology to the welfare system, from Mozart's operas to horse medicine</t>
+  </si>
+  <si>
+    <t>scholarly pursuits</t>
+  </si>
+  <si>
+    <t>a packed classroom</t>
+  </si>
+  <si>
+    <t>his fellow activists in prison</t>
+  </si>
+  <si>
+    <t>… discover a new understanding and appreciation of a pluralistic society develop your skills in interacting with people quite different from you.</t>
+  </si>
+  <si>
+    <t>… he comes to know a number of white jail-keepers reasonably well.</t>
+  </si>
+  <si>
+    <t>… see the injustice perpetrated by both apartheid and the imprisonment of the activists.</t>
+  </si>
+  <si>
+    <t>This is precisely why the National Party was violently opposed to all forms of integration.</t>
+  </si>
+  <si>
+    <t>Only a white electorate indoctrinated with the idea of a black threat, ignorant of African ideas and policies, ---</t>
+  </si>
+  <si>
+    <t>--- could support the monstrous racist philosophy of National Party.</t>
+  </si>
+  <si>
+    <t>would not breed contempt</t>
   </si>
 </sst>
 </file>
@@ -626,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C97"/>
+  <dimension ref="B2:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1352,6 +1385,94 @@
         <v>87</v>
       </c>
     </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -310,7 +310,97 @@
     <t>--- could support the monstrous racist philosophy of National Party.</t>
   </si>
   <si>
-    <t>would not breed contempt</t>
+    <t>would not bring contempt but understanding and even eventually harmony.</t>
+  </si>
+  <si>
+    <t>Mandela remains commited to the services of his community and through that service he comes to many new insights.</t>
+  </si>
+  <si>
+    <t>… as one vehicle for broadening your experience.</t>
+  </si>
+  <si>
+    <t>… to ready themselves to live in a world that is increasingly interconnected.</t>
+  </si>
+  <si>
+    <t>Isolation is not possible for any nation physically, economically, environmentally or intellectually.</t>
+  </si>
+  <si>
+    <t>explore the frontiers of the fields</t>
+  </si>
+  <si>
+    <t>Being at the forefront of discovery and taking part in the creation of new knowledge is an immensely rewarding and life-altering experience.</t>
+  </si>
+  <si>
+    <t>it ignited a passion for being on the leading edge of discovery.</t>
+  </si>
+  <si>
+    <t>Of course, real growth involves not only risking failure but also overcoming adversity.</t>
+  </si>
+  <si>
+    <t>… to find ways to remain committed to the freedom struggle during his many years in prison.</t>
+  </si>
+  <si>
+    <t>Challenge yourself with courses and disciplines that are new to you;</t>
+  </si>
+  <si>
+    <t>and should you occasionally not succeed do not become disillusioned.</t>
+  </si>
+  <si>
+    <t>The only people I know who succeed at everything they undertake are those who have timid at setting their goals.</t>
+  </si>
+  <si>
+    <t>A cornerstone of Mandela's effort to bring about a democratic South Africa was…</t>
+  </si>
+  <si>
+    <t>Today, you join a university community created and bound by a commitment to similarly lofty ideals, …</t>
+  </si>
+  <si>
+    <t>… a community of scholars dedicated to the pursuit of truth, knowledge, and understanding.</t>
+  </si>
+  <si>
+    <t>tragic death of their son</t>
+  </si>
+  <si>
+    <t>… and as it says in the founding grant to exercise and influence on behalf of humanity and civilization.</t>
+  </si>
+  <si>
+    <t>… who chose the univerisity's motto, "The wind of freedom blows" to remind us the importance and privilege of free and open inquiry</t>
+  </si>
+  <si>
+    <t>… what engages their very able minds.</t>
+  </si>
+  <si>
+    <t>The final stanza of that poem is, …</t>
+  </si>
+  <si>
+    <t>"It matters not how straight the gate, how charged with punishments the scroll; I am the Master of my fate, I am the captain of my soul."</t>
+  </si>
+  <si>
+    <t>…which overcame incredible odds to win …</t>
+  </si>
+  <si>
+    <t>a young and unwed graduate student and she decided to put me up for adoption</t>
+  </si>
+  <si>
+    <t>I dropped out of Reed College after the six months but then stayed around as a drop in for another 18 months or so before I really quit</t>
+  </si>
+  <si>
+    <t>… she only relented a few months later when my parents promised that I will go to college.</t>
+  </si>
+  <si>
+    <t>… I naively chose a college that was almost as expensive as Stanford</t>
+  </si>
+  <si>
+    <t>… and all my working-class parents savings were being spent on my college tuition.</t>
+  </si>
+  <si>
+    <t>… and begin dropping in on the ones that looked far more interesting.</t>
+  </si>
+  <si>
+    <t>I returned coke bottles for the five cent deposits to buy food with.</t>
+  </si>
+  <si>
+    <t>… and much of what I stumbled into by following my curiosity and intuition turned out to be priceless later on.</t>
   </si>
 </sst>
 </file>
@@ -659,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C109"/>
+  <dimension ref="B2:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1331,10 +1421,10 @@
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B91" s="2">
-        <v>43369</v>
+        <v>43434</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.45">
@@ -1342,7 +1432,7 @@
         <v>43369</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.45">
@@ -1350,7 +1440,7 @@
         <v>43369</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.45">
@@ -1358,7 +1448,7 @@
         <v>43369</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.45">
@@ -1366,7 +1456,7 @@
         <v>43369</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.45">
@@ -1374,7 +1464,7 @@
         <v>43369</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.45">
@@ -1382,15 +1472,15 @@
         <v>43369</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="2">
-        <v>43370</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.45">
@@ -1398,7 +1488,7 @@
         <v>43370</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.45">
@@ -1406,7 +1496,7 @@
         <v>43370</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.45">
@@ -1414,7 +1504,7 @@
         <v>43370</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.45">
@@ -1422,7 +1512,7 @@
         <v>43370</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.45">
@@ -1430,7 +1520,7 @@
         <v>43370</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.45">
@@ -1438,7 +1528,7 @@
         <v>43370</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.45">
@@ -1446,7 +1536,7 @@
         <v>43370</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.45">
@@ -1454,7 +1544,7 @@
         <v>43370</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.45">
@@ -1462,7 +1552,7 @@
         <v>43370</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.45">
@@ -1470,7 +1560,247 @@
         <v>43370</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" s="2">
+        <v>43370</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" s="2">
+        <v>43425</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" s="2">
+        <v>43425</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" s="2">
+        <v>43425</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" s="2">
+        <v>43426</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" s="2">
+        <v>43427</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/english_learning/expression.xlsx
+++ b/english_learning/expression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Having gotten around a bit over the last few years, I am more convinced than ever …</t>
   </si>
@@ -401,6 +401,21 @@
   </si>
   <si>
     <t>… and much of what I stumbled into by following my curiosity and intuition turned out to be priceless later on.</t>
+  </si>
+  <si>
+    <t>Reed College at that time offered perhaps the best calligraphy instruction in the country.</t>
+  </si>
+  <si>
+    <t>Throughout the campus, every poster every label every drawer was beautifully hand calligraphed.</t>
+  </si>
+  <si>
+    <t>I learned about serif and sans-serif and typefaces, ---</t>
+  </si>
+  <si>
+    <t>--- about varying the amount of space between different letter combinations, ---</t>
+  </si>
+  <si>
+    <t>--- about what makes great typography great.</t>
   </si>
 </sst>
 </file>
@@ -749,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C142"/>
+  <dimension ref="B2:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B142"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144:B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1803,6 +1818,46 @@
         <v>128</v>
       </c>
     </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" s="2">
+        <v>43446</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" s="2">
+        <v>43446</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" s="2">
+        <v>43446</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" s="2">
+        <v>43446</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" s="2">
+        <v>43446</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
